--- a/ADMINISTRACIÓN DE PROYECTOS/Gestión de requerimientos/Anexos/DB de requerimientos.xlsx
+++ b/ADMINISTRACIÓN DE PROYECTOS/Gestión de requerimientos/Anexos/DB de requerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\girl_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\girl_\Documents\DistribuidoraMueblesMaravatio\ADMINISTRACIÓN DE PROYECTOS\Gestión de requerimientos\Anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
   <si>
     <t>Versión</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>Mejora de Procesos</t>
   </si>
   <si>
     <t>Seguimiento</t>
@@ -1167,24 +1164,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1211,6 +1190,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1720,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1730,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1740,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1752,10 +1749,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="17">
         <v>43675</v>
@@ -1799,10 +1796,10 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="19">
         <v>43676</v>
@@ -1845,12 +1842,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -1903,7 +1900,7 @@
   <dimension ref="A2:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="27"/>
     </row>
@@ -1942,25 +1939,25 @@
     </row>
     <row r="12" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="37">
         <v>43675</v>
       </c>
     </row>
@@ -1969,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1977,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1985,7 +1982,7 @@
     </row>
     <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -2039,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P743"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2068,14 +2065,14 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2090,20 +2087,20 @@
       <c r="A6"/>
       <c r="B6"/>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="J7" s="2"/>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -2114,28 +2111,28 @@
       <c r="E8" s="5"/>
       <c r="J8" s="5"/>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="40"/>
+      <c r="K9" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -2155,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>23</v>
@@ -2165,637 +2162,637 @@
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>111</v>
+      <c r="D11" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>73</v>
+      <c r="A12" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>111</v>
+      <c r="D12" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>74</v>
+      <c r="A13" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>111</v>
+      <c r="D13" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>75</v>
+      <c r="A14" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>111</v>
+      <c r="D14" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>76</v>
+      <c r="A15" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>111</v>
+      <c r="D15" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>77</v>
+      <c r="A16" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>111</v>
+      <c r="D16" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>78</v>
+      <c r="A17" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>112</v>
+      <c r="D17" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>79</v>
+      <c r="A18" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>112</v>
+      <c r="D18" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>80</v>
+      <c r="A19" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>112</v>
+      <c r="D19" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>81</v>
+      <c r="A20" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>112</v>
+      <c r="D20" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>82</v>
+      <c r="A21" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>112</v>
+      <c r="D21" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>85</v>
+      <c r="A22" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>84</v>
+      <c r="A23" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>92</v>
+      <c r="A24" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>112</v>
+      <c r="D24" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>93</v>
+      <c r="A25" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>94</v>
+      <c r="A26" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>112</v>
+      <c r="D26" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
-        <v>98</v>
+      <c r="A27" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>111</v>
+      <c r="D27" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>99</v>
+      <c r="A28" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
-        <v>107</v>
+      <c r="A29" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
-        <v>108</v>
+      <c r="A30" s="41" t="s">
+        <v>107</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>111</v>
+      <c r="D30" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B32" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="46" t="s">
+      <c r="C32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>112</v>
+      <c r="D32" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
